--- a/country_est.xlsx
+++ b/country_est.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexanderryan/Desktop/Structural-equation-modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6ACFCF0E-C5FF-BA4F-A0BA-2E44AE085302}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2079CC86-EA4E-B54D-ACEB-BEA69E93BE72}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16480" xr2:uid="{ADDDD085-9354-5F41-8758-5E6755FE87A6}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16340" xr2:uid="{ADDDD085-9354-5F41-8758-5E6755FE87A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="152">
   <si>
     <t>US</t>
   </si>
   <si>
-    <t>0.100</t>
-  </si>
-  <si>
     <t>0.015</t>
   </si>
   <si>
@@ -45,15 +42,9 @@
     <t>GB</t>
   </si>
   <si>
-    <t>0.133</t>
-  </si>
-  <si>
     <t>0.024</t>
   </si>
   <si>
-    <t>0.161</t>
-  </si>
-  <si>
     <t>0.043</t>
   </si>
   <si>
@@ -72,33 +63,18 @@
     <t>IE</t>
   </si>
   <si>
-    <t>0.237</t>
-  </si>
-  <si>
     <t>0.081</t>
   </si>
   <si>
-    <t>0.004</t>
-  </si>
-  <si>
     <t>NL</t>
   </si>
   <si>
-    <t>0.169</t>
-  </si>
-  <si>
-    <t>0.074</t>
-  </si>
-  <si>
     <t>0.022</t>
   </si>
   <si>
     <t>NO</t>
   </si>
   <si>
-    <t>0.227</t>
-  </si>
-  <si>
     <t>0.071</t>
   </si>
   <si>
@@ -108,9 +84,6 @@
     <t>IN</t>
   </si>
   <si>
-    <t>0.101</t>
-  </si>
-  <si>
     <t>0.025</t>
   </si>
   <si>
@@ -120,15 +93,9 @@
     <t>DK</t>
   </si>
   <si>
-    <t>0.344</t>
-  </si>
-  <si>
     <t>0.079</t>
   </si>
   <si>
-    <t>0.033</t>
-  </si>
-  <si>
     <t>CA</t>
   </si>
   <si>
@@ -144,81 +111,33 @@
     <t>BE</t>
   </si>
   <si>
-    <t>0.408</t>
-  </si>
-  <si>
     <t>0.093</t>
   </si>
   <si>
     <t>BR</t>
   </si>
   <si>
-    <t>-0.285</t>
-  </si>
-  <si>
     <t>0.067</t>
   </si>
   <si>
-    <t>-0.132</t>
-  </si>
-  <si>
     <t>0.016</t>
   </si>
   <si>
-    <t>0.108</t>
-  </si>
-  <si>
     <t>0.027</t>
   </si>
   <si>
-    <t>-0.060</t>
-  </si>
-  <si>
     <t>DE</t>
   </si>
   <si>
-    <t>-0.176</t>
-  </si>
-  <si>
     <t>0.009</t>
   </si>
   <si>
-    <t>-0.213</t>
-  </si>
-  <si>
-    <t>0.080</t>
-  </si>
-  <si>
-    <t>0.008</t>
-  </si>
-  <si>
-    <t>-0.295</t>
-  </si>
-  <si>
-    <t>0.077</t>
-  </si>
-  <si>
-    <t>0.185</t>
-  </si>
-  <si>
     <t>0.054</t>
   </si>
   <si>
-    <t>-0.422</t>
-  </si>
-  <si>
-    <t>-0.150</t>
-  </si>
-  <si>
-    <t>-0.334</t>
-  </si>
-  <si>
     <t>0.099</t>
   </si>
   <si>
-    <t>0.217</t>
-  </si>
-  <si>
     <t>0.072</t>
   </si>
   <si>
@@ -243,66 +162,36 @@
     <t>0.039</t>
   </si>
   <si>
-    <t>-0.191</t>
-  </si>
-  <si>
     <t>0.040</t>
   </si>
   <si>
     <t>0.018</t>
   </si>
   <si>
-    <t>-0.076</t>
-  </si>
-  <si>
     <t>0.037</t>
   </si>
   <si>
-    <t>0.125</t>
-  </si>
-  <si>
     <t>0.050</t>
   </si>
   <si>
     <t>0.012</t>
   </si>
   <si>
-    <t>0.019</t>
-  </si>
-  <si>
-    <t>0.135</t>
-  </si>
-  <si>
-    <t>0.096</t>
-  </si>
-  <si>
     <t>0.047</t>
   </si>
   <si>
     <t>0.042</t>
   </si>
   <si>
-    <t>0.167</t>
-  </si>
-  <si>
     <t>0.056</t>
   </si>
   <si>
-    <t>-0.162</t>
-  </si>
-  <si>
     <t>0.058</t>
   </si>
   <si>
-    <t>0.011</t>
-  </si>
-  <si>
     <t>0.020</t>
   </si>
   <si>
-    <t>-0.193</t>
-  </si>
-  <si>
     <t>0.063</t>
   </si>
   <si>
@@ -312,30 +201,15 @@
     <t>IT</t>
   </si>
   <si>
-    <t>-0.163</t>
-  </si>
-  <si>
-    <t>-0.130</t>
-  </si>
-  <si>
-    <t>0.053</t>
-  </si>
-  <si>
     <t>AT</t>
   </si>
   <si>
-    <t>-0.341</t>
-  </si>
-  <si>
     <t>0.035</t>
   </si>
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>0.208</t>
-  </si>
-  <si>
     <t>ES</t>
   </si>
   <si>
@@ -345,69 +219,24 @@
     <t>SE</t>
   </si>
   <si>
-    <t>-0.241</t>
-  </si>
-  <si>
     <t>0.055</t>
   </si>
   <si>
-    <t>-0.271</t>
-  </si>
-  <si>
-    <t>0.166</t>
-  </si>
-  <si>
     <t>0.146</t>
   </si>
   <si>
-    <t>0.059</t>
-  </si>
-  <si>
-    <t>0.013</t>
-  </si>
-  <si>
-    <t>0.127</t>
-  </si>
-  <si>
-    <t>0.213</t>
-  </si>
-  <si>
-    <t>0.049</t>
-  </si>
-  <si>
-    <t>0.457</t>
-  </si>
-  <si>
     <t>0.150</t>
   </si>
   <si>
     <t>-0.172</t>
   </si>
   <si>
-    <t>0.200</t>
-  </si>
-  <si>
-    <t>0.181</t>
-  </si>
-  <si>
     <t>RO</t>
   </si>
   <si>
     <t>0.057</t>
   </si>
   <si>
-    <t>-0.140</t>
-  </si>
-  <si>
-    <t>0.226</t>
-  </si>
-  <si>
-    <t>0.113</t>
-  </si>
-  <si>
-    <t>0.184</t>
-  </si>
-  <si>
     <t>0.052</t>
   </si>
   <si>
@@ -439,6 +268,219 @@
   </si>
   <si>
     <t>Factor</t>
+  </si>
+  <si>
+    <t>0.065</t>
+  </si>
+  <si>
+    <t>0.103</t>
+  </si>
+  <si>
+    <t>0.117</t>
+  </si>
+  <si>
+    <t>0.029</t>
+  </si>
+  <si>
+    <t>0.220</t>
+  </si>
+  <si>
+    <t>0.007</t>
+  </si>
+  <si>
+    <t>0.182</t>
+  </si>
+  <si>
+    <t>0.070</t>
+  </si>
+  <si>
+    <t>0.010</t>
+  </si>
+  <si>
+    <t>0.069</t>
+  </si>
+  <si>
+    <t>0.323</t>
+  </si>
+  <si>
+    <t>0.377</t>
+  </si>
+  <si>
+    <t>0.094</t>
+  </si>
+  <si>
+    <t>-0.326</t>
+  </si>
+  <si>
+    <t>0.066</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>-0.131</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>-0.243</t>
+  </si>
+  <si>
+    <t>-0.093</t>
+  </si>
+  <si>
+    <t>0.136</t>
+  </si>
+  <si>
+    <t>0.041</t>
+  </si>
+  <si>
+    <t>-0.138</t>
+  </si>
+  <si>
+    <t>-0.255</t>
+  </si>
+  <si>
+    <t>0.076</t>
+  </si>
+  <si>
+    <t>0.228</t>
+  </si>
+  <si>
+    <t>-0.378</t>
+  </si>
+  <si>
+    <t>-0.291</t>
+  </si>
+  <si>
+    <t>0.251</t>
+  </si>
+  <si>
+    <t>0.123</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>0.353</t>
+  </si>
+  <si>
+    <t>0.073</t>
+  </si>
+  <si>
+    <t>0.140</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
+    <t>0.102</t>
+  </si>
+  <si>
+    <t>0.179</t>
+  </si>
+  <si>
+    <t>-0.156</t>
+  </si>
+  <si>
+    <t>0.132</t>
+  </si>
+  <si>
+    <t>0.028</t>
+  </si>
+  <si>
+    <t>NZ</t>
+  </si>
+  <si>
+    <t>0.091</t>
+  </si>
+  <si>
+    <t>ZA</t>
+  </si>
+  <si>
+    <t>-0.121</t>
+  </si>
+  <si>
+    <t>-0.147</t>
+  </si>
+  <si>
+    <t>-0.116</t>
+  </si>
+  <si>
+    <t>-0.346</t>
+  </si>
+  <si>
+    <t>0.157</t>
+  </si>
+  <si>
+    <t>0.233</t>
+  </si>
+  <si>
+    <t>-0.158</t>
+  </si>
+  <si>
+    <t>-0.217</t>
+  </si>
+  <si>
+    <t>-0.259</t>
+  </si>
+  <si>
+    <t>0.121</t>
+  </si>
+  <si>
+    <t>0.205</t>
+  </si>
+  <si>
+    <t>0.048</t>
+  </si>
+  <si>
+    <t>0.430</t>
+  </si>
+  <si>
+    <t>-0.208</t>
+  </si>
+  <si>
+    <t>0.051</t>
+  </si>
+  <si>
+    <t>0.131</t>
+  </si>
+  <si>
+    <t>0.014</t>
+  </si>
+  <si>
+    <t>0.044</t>
+  </si>
+  <si>
+    <t>0.128</t>
+  </si>
+  <si>
+    <t>-0.185</t>
+  </si>
+  <si>
+    <t>0.197</t>
+  </si>
+  <si>
+    <t>0.143</t>
+  </si>
+  <si>
+    <t>0.174</t>
+  </si>
+  <si>
+    <t>-0.165</t>
+  </si>
+  <si>
+    <t>-0.364</t>
+  </si>
+  <si>
+    <t>MY</t>
+  </si>
+  <si>
+    <t>-0.400</t>
+  </si>
+  <si>
+    <t>-0.113</t>
   </si>
 </sst>
 </file>
@@ -798,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E496651-C74A-094B-8BF1-3DE396390B7B}">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G1" sqref="G1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -811,1005 +853,1124 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>128</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>76</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>93</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>97</v>
+        <v>5</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>3</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>112</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>113</v>
+        <v>3</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>93</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>23</v>
+        <v>133</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="D51" s="2" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>3</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>3</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
